--- a/src/test/resources/testDataSheet.xlsx
+++ b/src/test/resources/testDataSheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akemal\Internship Project\Internship Project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38AFE3D-46F0-4EC6-9C56-3D68C44FE55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD1945-14B9-4E8C-895B-E5D08315555F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1320" windowWidth="15375" windowHeight="8325" xr2:uid="{7059B2A5-C940-4C8E-B916-82E965F5A0DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7059B2A5-C940-4C8E-B916-82E965F5A0DE}"/>
   </bookViews>
   <sheets>
     <sheet name="testData" sheetId="1" r:id="rId1"/>
-    <sheet name="STM_ADDON" sheetId="2" r:id="rId2"/>
+    <sheet name="takaful_malaysia" sheetId="2" r:id="rId2"/>
+    <sheet name="chubb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>NRIC</t>
   </si>
@@ -45,80 +46,77 @@
     <t>vehNo</t>
   </si>
   <si>
+    <t>Supported AddOn</t>
+  </si>
+  <si>
+    <t>Cover for Windscreens, Windows and Sunroof</t>
+  </si>
+  <si>
+    <t>Legal Liability to Passengers</t>
+  </si>
+  <si>
+    <t>Legal Liability of Passengers for Negligence Acts</t>
+  </si>
+  <si>
+    <t>Inclusion of Special Perils</t>
+  </si>
+  <si>
+    <t>MOTOR PA PLUS</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>All Drivers</t>
+  </si>
+  <si>
+    <t>880627035222</t>
+  </si>
+  <si>
+    <t>PNA9418</t>
+  </si>
+  <si>
+    <t>930706145318</t>
+  </si>
+  <si>
     <t>WA3882D</t>
   </si>
   <si>
+    <t>840204085379</t>
+  </si>
+  <si>
     <t>AHM4678</t>
   </si>
   <si>
-    <t>PNA9418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	880627035222</t>
-  </si>
-  <si>
-    <t>840204085379</t>
-  </si>
-  <si>
-    <t>930706145318</t>
-  </si>
-  <si>
-    <t>WYN2329</t>
-  </si>
-  <si>
-    <t>510905055066</t>
+    <t>900324075011</t>
   </si>
   <si>
     <t>TCM2490</t>
   </si>
   <si>
-    <t>900324075011</t>
-  </si>
-  <si>
-    <t>Supported AddOn</t>
-  </si>
-  <si>
-    <t>Cover for Windscreens, Windows and Sunroof</t>
-  </si>
-  <si>
-    <t>Legal Liability to Passengers</t>
-  </si>
-  <si>
-    <t>Legal Liability of Passengers for Negligence Acts</t>
-  </si>
-  <si>
-    <t>Inclusion of Special Perils</t>
-  </si>
-  <si>
-    <t>MOTOR PA PLUS</t>
+    <t>WKR257</t>
+  </si>
+  <si>
+    <t>891127065402</t>
   </si>
   <si>
     <t>Towing and Cleaning due to Water Damage</t>
   </si>
   <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>All Drivers</t>
+    <t>All drivers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,13 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,17 +496,17 @@
   <dimension ref="B3:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -518,43 +514,43 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>7</v>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +564,7 @@
   <dimension ref="B3:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,49 +574,97 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9A1BDD-E0E0-46D9-812C-30040292D768}">
+  <dimension ref="B3:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>